--- a/RNN_python/output_data_test/anom_data6.xlsx
+++ b/RNN_python/output_data_test/anom_data6.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43090</v>
+        <v>43070</v>
       </c>
       <c r="D2" t="n">
-        <v>8.834497850367825</v>
+        <v>16.57696333286087</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43090.04166666666</v>
+        <v>43070.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4.853983962294748</v>
+        <v>0.2628118349377644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43090.08333333334</v>
+        <v>43070.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5612656203249315</v>
+        <v>-0.06659086211865883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43090.125</v>
+        <v>43070.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.393893586674565</v>
+        <v>22.36025783507675</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43090.16666666666</v>
+        <v>43070.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.456376168761949</v>
+        <v>35.84114279545571</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43090.20833333334</v>
+        <v>43070.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4297386067983666</v>
+        <v>54.79794967767624</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43090.25</v>
+        <v>43070.25</v>
       </c>
       <c r="D8" t="n">
-        <v>8.253030989851695</v>
+        <v>97.01635314712074</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43090.29166666666</v>
+        <v>43070.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>47.47147346990617</v>
+        <v>166.448208863786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43090.33333333334</v>
+        <v>43070.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>274.5914539734297</v>
+        <v>240.2092899895905</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43090.375</v>
+        <v>43070.375</v>
       </c>
       <c r="D11" t="n">
-        <v>406.5856729865035</v>
+        <v>324.2549719217534</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43090.41666666666</v>
+        <v>43070.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>436.2893885898179</v>
+        <v>363.5871587989847</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43090.45833333334</v>
+        <v>43070.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>400.6749512329578</v>
+        <v>352.6995061573581</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43090.5</v>
+        <v>43070.5</v>
       </c>
       <c r="D14" t="n">
-        <v>343.1540517149695</v>
+        <v>314.9176209149169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43090.54166666666</v>
+        <v>43070.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>301.956459399139</v>
+        <v>278.6110300052292</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43090.58333333334</v>
+        <v>43070.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1223584611922</v>
+        <v>238.6313240990817</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43090.625</v>
+        <v>43070.625</v>
       </c>
       <c r="D17" t="n">
-        <v>190.6902388139177</v>
+        <v>195.7971535463988</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43090.66666666666</v>
+        <v>43070.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>149.5369933611788</v>
+        <v>153.0318451954712</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43090.70833333334</v>
+        <v>43070.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>115.721112235507</v>
+        <v>114.2340446492233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43090.75</v>
+        <v>43070.75</v>
       </c>
       <c r="D20" t="n">
-        <v>88.17943762616216</v>
+        <v>82.01491534867816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43090.79166666666</v>
+        <v>43070.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>66.69167402097987</v>
+        <v>57.15574190705985</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43090.83333333334</v>
+        <v>43070.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>50.86884378181385</v>
+        <v>39.03412604939885</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43090.875</v>
+        <v>43070.875</v>
       </c>
       <c r="D23" t="n">
-        <v>40.02028507440428</v>
+        <v>26.53426859207524</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43090.91666666666</v>
+        <v>43070.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>33.17385629195182</v>
+        <v>18.86052600652739</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43090.95833333334</v>
+        <v>43070.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>29.12624658792386</v>
+        <v>16.02800104105548</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43090</v>
+        <v>43070</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43090.04166666666</v>
+        <v>43070.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43090.08333333334</v>
+        <v>43070.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43090.125</v>
+        <v>43070.125</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43090.16666666666</v>
+        <v>43070.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43090.20833333334</v>
+        <v>43070.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43090.25</v>
+        <v>43070.25</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43090.29166666666</v>
+        <v>43070.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43090.33333333334</v>
+        <v>43070.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>476</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43090.375</v>
+        <v>43070.375</v>
       </c>
       <c r="D11" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43090.41666666666</v>
+        <v>43070.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>434</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43090.45833333334</v>
+        <v>43070.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>326</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43090.5</v>
+        <v>43070.5</v>
       </c>
       <c r="D14" t="n">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43090.54166666666</v>
+        <v>43070.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>274</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43090.58333333334</v>
+        <v>43070.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43090.625</v>
+        <v>43070.625</v>
       </c>
       <c r="D17" t="n">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43090.66666666666</v>
+        <v>43070.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43090.70833333334</v>
+        <v>43070.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43090.75</v>
+        <v>43070.75</v>
       </c>
       <c r="D20" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43090.79166666666</v>
+        <v>43070.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43090.83333333334</v>
+        <v>43070.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43090.875</v>
+        <v>43070.875</v>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43090.91666666666</v>
+        <v>43070.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43090.95833333334</v>
+        <v>43070.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data6.xlsx
+++ b/RNN_python/output_data_test/anom_data6.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43070</v>
+        <v>43080</v>
       </c>
       <c r="D2" t="n">
-        <v>16.57696333286087</v>
+        <v>30.28773834653667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43070.04166666666</v>
+        <v>43080.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2628118349377644</v>
+        <v>11.18821402954059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43070.08333333334</v>
+        <v>43080.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06659086211865883</v>
+        <v>13.50441080310695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43070.125</v>
+        <v>43080.125</v>
       </c>
       <c r="D5" t="n">
-        <v>22.36025783507675</v>
+        <v>11.33386132980459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43070.16666666666</v>
+        <v>43080.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>35.84114279545571</v>
+        <v>12.71617206132396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43070.20833333334</v>
+        <v>43080.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>54.79794967767624</v>
+        <v>7.960038346785254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43070.25</v>
+        <v>43080.25</v>
       </c>
       <c r="D8" t="n">
-        <v>97.01635314712074</v>
+        <v>-12.01344982221944</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43070.29166666666</v>
+        <v>43080.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>166.448208863786</v>
+        <v>-8.036269000213295</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43070.33333333334</v>
+        <v>43080.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>240.2092899895905</v>
+        <v>51.40291011804135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43070.375</v>
+        <v>43080.375</v>
       </c>
       <c r="D11" t="n">
-        <v>324.2549719217534</v>
+        <v>387.2126756434419</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43070.41666666666</v>
+        <v>43080.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>363.5871587989847</v>
+        <v>405.7147302749031</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43070.45833333334</v>
+        <v>43080.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>352.6995061573581</v>
+        <v>390.2120761072604</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43070.5</v>
+        <v>43080.5</v>
       </c>
       <c r="D14" t="n">
-        <v>314.9176209149169</v>
+        <v>357.1558225274757</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43070.54166666666</v>
+        <v>43080.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>278.6110300052292</v>
+        <v>307.8288576397493</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43070.58333333334</v>
+        <v>43080.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>238.6313240990817</v>
+        <v>269.7536559070626</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43070.625</v>
+        <v>43080.625</v>
       </c>
       <c r="D17" t="n">
-        <v>195.7971535463988</v>
+        <v>238.5725123669578</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43070.66666666666</v>
+        <v>43080.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>153.0318451954712</v>
+        <v>204.5122129952341</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43070.70833333334</v>
+        <v>43080.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>114.2340446492233</v>
+        <v>166.7069368469602</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43070.75</v>
+        <v>43080.75</v>
       </c>
       <c r="D20" t="n">
-        <v>82.01491534867816</v>
+        <v>127.7824570898953</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43070.79166666666</v>
+        <v>43080.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>57.15574190705985</v>
+        <v>92.67330453493663</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43070.83333333334</v>
+        <v>43080.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>39.03412604939885</v>
+        <v>65.19954297893057</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43070.875</v>
+        <v>43080.875</v>
       </c>
       <c r="D23" t="n">
-        <v>26.53426859207524</v>
+        <v>45.47942329818972</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43070.91666666666</v>
+        <v>43080.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>18.86052600652739</v>
+        <v>31.45860922328498</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43070.95833333334</v>
+        <v>43080.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>16.02800104105548</v>
+        <v>30.03019834170343</v>
       </c>
     </row>
   </sheetData>
@@ -709,61 +709,61 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43070</v>
+        <v>43080</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43070.04166666666</v>
+        <v>43080.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43070.08333333334</v>
+        <v>43080.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43070.125</v>
+        <v>43080.125</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43070.16666666666</v>
+        <v>43080.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43070.20833333334</v>
+        <v>43080.20833333334</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
@@ -773,180 +773,180 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43070.25</v>
+        <v>43080.25</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43070.29166666666</v>
+        <v>43080.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43070.33333333334</v>
+        <v>43080.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>435</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43070.375</v>
+        <v>43080.375</v>
       </c>
       <c r="D11" t="n">
-        <v>355</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43070.41666666666</v>
+        <v>43080.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>538</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43070.45833333334</v>
+        <v>43080.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>301</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43070.5</v>
+        <v>43080.5</v>
       </c>
       <c r="D14" t="n">
-        <v>284</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43070.54166666666</v>
+        <v>43080.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>204</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43070.58333333334</v>
+        <v>43080.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43070.625</v>
+        <v>43080.625</v>
       </c>
       <c r="D17" t="n">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43070.66666666666</v>
+        <v>43080.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43070.70833333334</v>
+        <v>43080.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43070.75</v>
+        <v>43080.75</v>
       </c>
       <c r="D20" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43070.79166666666</v>
+        <v>43080.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43070.83333333334</v>
+        <v>43080.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43070.875</v>
+        <v>43080.875</v>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43070.91666666666</v>
+        <v>43080.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43070.95833333334</v>
+        <v>43080.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
